--- a/uploads/data.xlsx
+++ b/uploads/data.xlsx
@@ -167,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -175,6 +175,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -489,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +508,7 @@
     <col min="10" max="10" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -517,8 +524,15 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -534,8 +548,15 @@
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -557,8 +578,15 @@
       <c r="G3" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -580,8 +608,15 @@
       <c r="G4" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -603,8 +638,15 @@
       <c r="G5" s="1">
         <v>2900</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -626,8 +668,15 @@
       <c r="G6" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -649,8 +698,15 @@
       <c r="G7" s="1">
         <v>915</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -672,8 +728,15 @@
       <c r="G8" s="1">
         <v>3000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -695,8 +758,15 @@
       <c r="G9" s="1">
         <v>1900</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -718,8 +788,15 @@
       <c r="G10" s="1">
         <v>1500</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -741,8 +818,15 @@
       <c r="G11" s="1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -764,8 +848,15 @@
       <c r="G12" s="1">
         <v>450</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -787,8 +878,15 @@
       <c r="G13" s="1">
         <v>4600</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -810,8 +908,15 @@
       <c r="G14" s="1">
         <v>2500</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -833,8 +938,15 @@
       <c r="G15" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -856,8 +968,15 @@
       <c r="G16" s="1">
         <v>2800</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -879,8 +998,15 @@
       <c r="G17" s="1">
         <v>2600</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -902,8 +1028,15 @@
       <c r="G18" s="1">
         <v>1200</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -925,8 +1058,15 @@
       <c r="G19" s="1">
         <v>950</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -948,8 +1088,15 @@
       <c r="G20" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -971,8 +1118,16 @@
       <c r="G21" s="1">
         <v>900</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -994,13 +1149,35 @@
       <c r="G22" s="1">
         <v>1100</v>
       </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:O1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
